--- a/VasoTracker_Vessel_Chamber/VasoTracker_Chamber_Parts_List_20200612.xlsx
+++ b/VasoTracker_Vessel_Chamber/VasoTracker_Chamber_Parts_List_20200612.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xpb10145\Documents\GitHub\VasoTracker\VasoTracker_Vessel_Chamber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CC0DD5-B5AA-46DC-A792-DCD9796E13A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A6F66B-E4EF-4F24-B487-16BE98DC90A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{6EC48961-583F-40A1-88CA-815DFB4DF590}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>Myograph Bath</t>
   </si>
@@ -69,9 +69,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>3D Print</t>
-  </si>
-  <si>
     <t>Cannula fixture B</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>Subtotal</t>
   </si>
   <si>
-    <t>Blunt, bent needles</t>
-  </si>
-  <si>
     <t>Needlez</t>
   </si>
   <si>
@@ -198,18 +192,6 @@
     <t>MS1R/M</t>
   </si>
   <si>
-    <t>1.5 mm OD glass capillary glass (225 pieces)</t>
-  </si>
-  <si>
-    <t>Harvard Apparatus</t>
-  </si>
-  <si>
-    <t>Or prepulled cannula from Living Systems/DMT</t>
-  </si>
-  <si>
-    <t>??</t>
-  </si>
-  <si>
     <t xml:space="preserve">13 mm metal rod </t>
   </si>
   <si>
@@ -217,13 +199,37 @@
   </si>
   <si>
     <t>Cannula Lateral Top</t>
+  </si>
+  <si>
+    <t>Custom Imaging Chamber Parts</t>
+  </si>
+  <si>
+    <t>3D Print (ETG/PLA)</t>
+  </si>
+  <si>
+    <t>Imaging Chamber Parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5", 14 - 18 Guage Blunt, bent needles </t>
+  </si>
+  <si>
+    <t>Cannula holders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5 mm OD glass capillary glass (225 pieces) </t>
+  </si>
+  <si>
+    <t>Warner Instruments30-0058</t>
+  </si>
+  <si>
+    <t>Perfusion Attachments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +262,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF201F1E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -301,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -318,10 +332,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -340,6 +350,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E875D9-D4AF-4633-BCB9-1FB2BC0435F4}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +686,7 @@
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +696,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -699,646 +716,658 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E5" s="4">
         <v>178.62</v>
       </c>
-      <c r="F3" s="4">
-        <f t="shared" ref="F3:F10" si="0">D3*E3</f>
+      <c r="F5" s="4">
+        <f t="shared" ref="F5:F7" si="0">D5*E5</f>
         <v>178.62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E6" s="4">
         <v>95.48</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>95.48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E7" s="4">
         <v>136.52000000000001</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>273.04000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <f>SUM(F5:F7)</f>
+        <v>547.1400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>18.66</v>
+      </c>
+      <c r="F15" s="4">
+        <f>D15*E15</f>
+        <v>18.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="23">
+        <v>5</v>
+      </c>
+      <c r="F16" s="24">
+        <f>D16*E16</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="F19" s="4">
+        <f>D19*E19</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="F20" s="4">
+        <f>D20*E20</f>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="F21" s="4">
+        <f>D21*E21</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7">
+        <v>245.91</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" ref="F24:F29" si="1">D24*E24</f>
+        <v>491.82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3">
+      <c r="B25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="7">
-        <v>245.91</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" ref="F12:F17" si="1">D12*E12</f>
-        <v>491.82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="E25" s="7">
         <v>1.58</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F25" s="4">
         <f t="shared" si="1"/>
         <v>3.16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="3">
         <v>2</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E26" s="7">
         <v>4.79</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F26" s="4">
         <f t="shared" si="1"/>
         <v>9.58</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E27" s="7">
         <v>5.08</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F27" s="4">
         <f t="shared" si="1"/>
         <v>10.16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="D28" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E28" s="7">
         <v>6.34</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F28" s="4">
         <f t="shared" si="1"/>
         <v>12.68</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="D29" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E29" s="7">
         <v>13.39</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F29" s="4">
         <f t="shared" si="1"/>
         <v>26.78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0.63</v>
-      </c>
-      <c r="F19" s="4">
-        <f>D19*E19</f>
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="7">
-        <v>5.99</v>
-      </c>
-      <c r="F21" s="4">
-        <f>D21*E21</f>
-        <v>5.99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7">
-        <v>7.2</v>
-      </c>
-      <c r="F22" s="4">
-        <f>D22*E22</f>
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7">
-        <v>4.2</v>
-      </c>
-      <c r="F24" s="4">
-        <f>D24*E24</f>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>18.66</v>
-      </c>
-      <c r="F25" s="4">
-        <f>D25*E25</f>
-        <v>18.66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="12">
-        <v>5</v>
-      </c>
-      <c r="F27" s="13">
-        <f>D27*E27</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-      <c r="E28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="1">
-        <f>SUM(F3:F27)</f>
-        <v>1143.6300000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="E30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="18">
+        <v>28</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="3">
         <v>1</v>
       </c>
-      <c r="E31" s="18">
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="F31" s="19">
+      <c r="E31" s="7">
+        <v>5.99</v>
+      </c>
+      <c r="F31" s="4">
         <f>D31*E31</f>
-        <v>8.5299999999999994</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="18">
-        <v>1</v>
-      </c>
-      <c r="E32" s="18">
-        <v>96</v>
-      </c>
-      <c r="F32" s="18">
-        <f>D32*E32</f>
-        <v>96</v>
-      </c>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="18">
-        <v>1</v>
-      </c>
-      <c r="E33" s="18">
-        <v>6.36</v>
-      </c>
-      <c r="F33" s="18">
-        <f>D33*E33</f>
-        <v>6.36</v>
-      </c>
+      <c r="A33" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="14">
+        <v>1</v>
+      </c>
+      <c r="E34" s="14">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="F34" s="15">
+        <f>D34*E34</f>
+        <v>8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="14">
+        <v>1</v>
+      </c>
+      <c r="E35" s="14">
+        <v>96</v>
+      </c>
+      <c r="F35" s="14">
+        <f>D35*E35</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="14">
+        <v>1</v>
+      </c>
+      <c r="E36" s="14">
+        <v>6.36</v>
+      </c>
+      <c r="F36" s="14">
+        <f>D36*E36</f>
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="14">
+        <v>1</v>
+      </c>
+      <c r="E37" s="14">
+        <v>6.46</v>
+      </c>
+      <c r="F37" s="14">
+        <f>D37*E37</f>
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="20" t="s">
+      <c r="B38" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D38" s="18">
         <v>1</v>
       </c>
-      <c r="E34" s="18">
-        <v>6.46</v>
-      </c>
-      <c r="F34" s="18">
-        <f>D34*E34</f>
-        <v>6.46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="22">
-        <v>1</v>
-      </c>
-      <c r="E35" s="22">
+      <c r="E38" s="18">
         <v>16.940000000000001</v>
       </c>
-      <c r="F35" s="22">
-        <f>D35*E35</f>
+      <c r="F38" s="18">
+        <f>D38*E38</f>
         <v>16.940000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="14"/>
-      <c r="E36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="1">
-        <f>SUM(F31:F35)</f>
-        <v>134.29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="24">
-        <v>300058</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="24"/>
-      <c r="E40" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" t="s">
-        <v>60</v>
+      <c r="B39" s="10"/>
+      <c r="E39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="1">
+        <f>SUM(F5:F38)</f>
+        <v>1277.9200000000003</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F41" s="1">
-        <f>SUM(F39:F40)</f>
-        <v>0</v>
-      </c>
+      <c r="A41" s="19"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="20"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="20"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
